--- a/summaryStat.xlsx
+++ b/summaryStat.xlsx
@@ -16,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
+    <t>Line</t>
+  </si>
+  <si>
     <t>Feed</t>
   </si>
   <si>
@@ -32,9 +35,6 @@
   </si>
   <si>
     <t>Staff</t>
-  </si>
-  <si>
-    <t>Line</t>
   </si>
   <si>
     <t>count</t>
@@ -476,25 +476,25 @@
         <v>8</v>
       </c>
       <c r="B3">
+        <v>1.49375</v>
+      </c>
+      <c r="C3">
         <v>7999.6109375</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7935.5140625</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>64.096875</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>56.219921875</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1439.89140625</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>19.51076171874979</v>
-      </c>
-      <c r="H3">
-        <v>1.834765625</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -502,25 +502,25 @@
         <v>9</v>
       </c>
       <c r="B4">
+        <v>0.5000586132116198</v>
+      </c>
+      <c r="C4">
         <v>2531.647980132343</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2533.702625087903</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>208.4764847535417</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>34.54796680202922</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5015.859873943217</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>10.76601094304275</v>
-      </c>
-      <c r="H4">
-        <v>0.3714645030841894</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -528,25 +528,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>-941</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -554,25 +554,25 @@
         <v>11</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>7339.75</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>7236</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>33</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>424</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>11</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -580,25 +580,25 @@
         <v>12</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>8912</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>8856</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>68</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>632</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>17.46666666666667</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -606,25 +606,25 @@
         <v>13</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>9684</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>9612</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>127</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>70</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1050.5</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>28.5</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -632,25 +632,25 @@
         <v>14</v>
       </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>11024</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>10962</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3940</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>243</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>132556</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>43.08333333333331</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/summaryStat.xlsx
+++ b/summaryStat.xlsx
@@ -34,7 +34,7 @@
     <t>Sum_Duration</t>
   </si>
   <si>
-    <t>Staff</t>
+    <t>Sum_Staff</t>
   </si>
   <si>
     <t>count</t>
@@ -450,25 +450,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>2560</v>
+        <v>2628</v>
       </c>
       <c r="C2">
-        <v>2560</v>
+        <v>2628</v>
       </c>
       <c r="D2">
-        <v>2560</v>
+        <v>2628</v>
       </c>
       <c r="E2">
-        <v>2560</v>
+        <v>2628</v>
       </c>
       <c r="F2">
-        <v>2560</v>
+        <v>2628</v>
       </c>
       <c r="G2">
-        <v>2560</v>
+        <v>2628</v>
       </c>
       <c r="H2">
-        <v>2560</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -476,25 +476,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.49375</v>
+        <v>1.514079147640792</v>
       </c>
       <c r="C3">
-        <v>7999.6109375</v>
+        <v>8010.939878234399</v>
       </c>
       <c r="D3">
-        <v>7935.5140625</v>
+        <v>7947.436834094368</v>
       </c>
       <c r="E3">
-        <v>64.096875</v>
+        <v>63.50304414003044</v>
       </c>
       <c r="F3">
-        <v>56.219921875</v>
+        <v>56.83485540334856</v>
       </c>
       <c r="G3">
-        <v>1439.89140625</v>
+        <v>1495.921613394216</v>
       </c>
       <c r="H3">
-        <v>19.51076171874979</v>
+        <v>5.76179604261796</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -502,25 +502,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5000586132116198</v>
+        <v>0.4998968570955762</v>
       </c>
       <c r="C4">
-        <v>2531.647980132343</v>
+        <v>2518.175391893868</v>
       </c>
       <c r="D4">
-        <v>2533.702625087903</v>
+        <v>2516.377595869144</v>
       </c>
       <c r="E4">
-        <v>208.4764847535417</v>
+        <v>206.220236782154</v>
       </c>
       <c r="F4">
-        <v>34.54796680202922</v>
+        <v>35.13795925929537</v>
       </c>
       <c r="G4">
-        <v>5015.859873943217</v>
+        <v>5278.462231362701</v>
       </c>
       <c r="H4">
-        <v>10.76601094304275</v>
+        <v>3.089878384157594</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -557,13 +557,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>7339.75</v>
+        <v>7361.75</v>
       </c>
       <c r="D6">
         <v>7236</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>33</v>
@@ -572,7 +572,7 @@
         <v>424</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -580,10 +580,10 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8912</v>
+        <v>8928</v>
       </c>
       <c r="D7">
         <v>8856</v>
@@ -598,7 +598,7 @@
         <v>632</v>
       </c>
       <c r="H7">
-        <v>17.46666666666667</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -609,22 +609,22 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>9684</v>
+        <v>9693</v>
       </c>
       <c r="D8">
         <v>9612</v>
       </c>
       <c r="E8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8">
-        <v>1050.5</v>
+        <v>1038</v>
       </c>
       <c r="H8">
-        <v>28.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -650,7 +650,7 @@
         <v>132556</v>
       </c>
       <c r="H9">
-        <v>43.08333333333331</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
